--- a/schema.xlsx
+++ b/schema.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apiPanel\api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apiSQLite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299670B7-D2C2-4B48-AC1F-361A9C2B88B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D694D4DF-E23A-42D2-874B-488B1B87881D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="62">
   <si>
     <t>table</t>
   </si>
@@ -146,27 +146,9 @@
     <t>edition</t>
   </si>
   <si>
-    <t>imagenesImpar</t>
-  </si>
-  <si>
-    <t>Fondo impar</t>
-  </si>
-  <si>
-    <t>pageoneImpar</t>
-  </si>
-  <si>
     <t>editor</t>
   </si>
   <si>
-    <t>imagenesPar</t>
-  </si>
-  <si>
-    <t>Fondo par</t>
-  </si>
-  <si>
-    <t>pageonePar</t>
-  </si>
-  <si>
     <t>TÃ­tulo</t>
   </si>
   <si>
@@ -176,19 +158,67 @@
     <t>EdiciÃ³n</t>
   </si>
   <si>
-    <t>PÃ¡gina impar</t>
-  </si>
-  <si>
-    <t>PÃ¡gina par</t>
-  </si>
-  <si>
     <t>link</t>
   </si>
   <si>
-    <t>Páginas</t>
-  </si>
-  <si>
     <t>columnInForm</t>
+  </si>
+  <si>
+    <t>categoria</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>categorias</t>
+  </si>
+  <si>
+    <t>PÃ¡ginas</t>
+  </si>
+  <si>
+    <t>revista</t>
+  </si>
+  <si>
+    <t>texto</t>
+  </si>
+  <si>
+    <t>Textos</t>
+  </si>
+  <si>
+    <t>Imagen</t>
+  </si>
+  <si>
+    <t>publicidad</t>
+  </si>
+  <si>
+    <t>distribucion</t>
+  </si>
+  <si>
+    <t>secciones</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>Icono</t>
+  </si>
+  <si>
+    <t>seccion</t>
+  </si>
+  <si>
+    <t>SecciÃ³n</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>PÃ¡gina</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>Nombre</t>
   </si>
 </sst>
 </file>
@@ -733,8 +763,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:M22" totalsRowShown="0">
-  <autoFilter ref="A1:M22" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:M58" totalsRowShown="0">
+  <autoFilter ref="A1:M58" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="table"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="column"/>
@@ -755,9 +785,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -795,7 +825,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -901,7 +931,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1043,7 +1073,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1051,15 +1081,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
@@ -1070,6 +1098,8 @@
     <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -1107,10 +1137,10 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="M1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1150,7 +1180,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -1168,7 +1198,7 @@
         <v>2</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1176,10 +1206,10 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -1196,8 +1226,14 @@
       <c r="H4">
         <v>3</v>
       </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
       <c r="M4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1205,25 +1241,28 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1231,10 +1270,10 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -1243,13 +1282,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1257,25 +1296,25 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1283,10 +1322,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -1295,10 +1334,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -1312,10 +1348,10 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1324,16 +1360,16 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="H9">
         <v>8</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1341,10 +1377,10 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -1362,7 +1398,7 @@
         <v>9</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1370,10 +1406,10 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -1382,42 +1418,42 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>200</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
-      <c r="L11" t="s">
-        <v>35</v>
-      </c>
       <c r="M11">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
+      <c r="L12" t="s">
+        <v>35</v>
       </c>
       <c r="M12">
         <v>3</v>
@@ -1425,13 +1461,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -1440,27 +1476,27 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1475,27 +1511,21 @@
         <v>200</v>
       </c>
       <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="J14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1504,24 +1534,24 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1530,36 +1560,36 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M17">
         <v>3</v>
@@ -1567,39 +1597,42 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -1608,24 +1641,27 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <v>200</v>
       </c>
       <c r="H19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1634,13 +1670,13 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M20">
         <v>3</v>
@@ -1648,13 +1684,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -1663,13 +1699,13 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G21">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -1677,13 +1713,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -1692,31 +1728,1054 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G22">
         <v>200</v>
       </c>
       <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27">
+        <v>200</v>
+      </c>
+      <c r="H27">
+        <v>7</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28">
+        <v>200</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
         <v>11</v>
       </c>
-      <c r="M22">
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30">
+        <v>200</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35">
+        <v>200</v>
+      </c>
+      <c r="H35">
+        <v>7</v>
+      </c>
+      <c r="M35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36">
+        <v>200</v>
+      </c>
+      <c r="H36">
+        <v>8</v>
+      </c>
+      <c r="M36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38">
+        <v>200</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="M41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42">
+        <v>200</v>
+      </c>
+      <c r="H42">
+        <v>6</v>
+      </c>
+      <c r="M42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43">
+        <v>200</v>
+      </c>
+      <c r="H43">
+        <v>7</v>
+      </c>
+      <c r="M43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45">
+        <v>200</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46">
+        <v>200</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="J46" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="J47" t="s">
+        <v>53</v>
+      </c>
+      <c r="K47" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48">
+        <v>6</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>9</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50">
+        <v>10</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51">
+        <v>200</v>
+      </c>
+      <c r="H51">
+        <v>11</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52">
+        <v>200</v>
+      </c>
+      <c r="H52">
+        <v>12</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54">
+        <v>200</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56">
+        <v>10</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57">
+        <v>200</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58">
+        <v>200</v>
+      </c>
+      <c r="H58">
+        <v>6</v>
+      </c>
+      <c r="M58">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E22" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E58" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H22" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H58" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>0</formula1>
       <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K22" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K58" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"one,many"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J22" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J58" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$A$2:$A$1048576</formula1>
     </dataValidation>
   </dataValidations>
